--- a/biology/Zoologie/Catoblepia_orgetorix/Catoblepia_orgetorix.xlsx
+++ b/biology/Zoologie/Catoblepia_orgetorix/Catoblepia_orgetorix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catoblepia orgetorix est un lépidoptère (papillon) de la famille des Nymphalidae et de la sous-famille des Morphinae et du genre Catoblepia.
 </t>
@@ -511,16 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catoblepia orgetorix a été décrit par  1870 sous le nom initial d' Opsiphanes orgetorix[1].
-Sous-espèces
-Catoblepia orgetorix orgetorix; présent au Nicaragua.
-Catoblepia orgetorix championi (Bristow, 1981); présent au Nicaraguaau Costa Rica, à Panama
-Catoblepia orgetorix magnalis Stichel, 1902; présent en Équateur
-Catoblepia orgetorix rothschildi (Casagrande &amp; Lamas, 2004); présent en Colombie[1].
-Noms vernaculaires
-Catoblepia orgetorix se nomme Orange-rimmed Owl-Butterfly en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catoblepia orgetorix a été décrit par  1870 sous le nom initial d' Opsiphanes orgetorix.
 </t>
         </is>
       </c>
@@ -546,10 +553,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Catoblepia orgetorix orgetorix; présent au Nicaragua.
+Catoblepia orgetorix championi (Bristow, 1981); présent au Nicaraguaau Costa Rica, à Panama
+Catoblepia orgetorix magnalis Stichel, 1902; présent en Équateur
+Catoblepia orgetorix rothschildi (Casagrande &amp; Lamas, 2004); présent en Colombie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Catoblepia_orgetorix</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catoblepia_orgetorix</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catoblepia orgetorix se nomme Orange-rimmed Owl-Butterfly en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Catoblepia_orgetorix</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catoblepia_orgetorix</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Catoblepia orgetorix est un papillon aux ailes antérieures à bord costal bossu et bord externe concave. Le dessus des ailes est de couleur marron avec aux ailes antérieures une bande soit orange soit bleue qui va de la moitié du bord costal à l'angle externe. Les ailes postérieures sont marron avec une large bordure marginale orange.
 Le revers est rayé de marron et de beige nacré avec un petit ocelle à l'apex des ailes antérieures et, aux ailes postérieures, deux gros ocelles l'un orange et l'autre beige nacré cerné d'orange.
@@ -557,69 +642,146 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Catoblepia_orgetorix</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Catoblepia_orgetorix</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Catoblepia_orgetorix</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catoblepia_orgetorix</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de la chenille de Catoblepia orgetorix championi sont des Araceae[1].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille de Catoblepia orgetorix championi sont des Araceae.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Catoblepia_orgetorix</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Catoblepia_orgetorix</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Catoblepia_orgetorix</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catoblepia_orgetorix</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catoblepia orgetorix est présent au Nicaragua, au Costa Rica, à Panama, en Colombie et en Équateur[1].
-Biotope
-Présent dans des forêts primaires du nord ouest de l'Equateur ou il semble assez discret. Attiré par des fruits pourris.
-Protection
-Pas de statut de protection particulier
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catoblepia orgetorix est présent au Nicaragua, au Costa Rica, à Panama, en Colombie et en Équateur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Catoblepia_orgetorix</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catoblepia_orgetorix</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Présent dans des forêts primaires du nord ouest de l'Equateur ou il semble assez discret. Attiré par des fruits pourris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Catoblepia_orgetorix</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catoblepia_orgetorix</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 </t>
         </is>
       </c>
